--- a/tests/testthat/files/sample2.xlsx
+++ b/tests/testthat/files/sample2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -349,11 +349,11 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4:D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="I2:L11 D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="59"/>
   </cols>
@@ -868,11 +868,11 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D4:D9 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.39228763</v>
+        <v>1.39228763</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.004714953</v>
+        <v>1.004714953</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.38953294</v>
+        <v>1.38953294</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>5.13654</v>
@@ -928,13 +928,13 @@
         <v>0.1667</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.24045541</v>
+        <v>1.24045541</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.078318426</v>
+        <v>1.078318426</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.00410776</v>
+        <v>1.00410776</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>5.985954</v>
@@ -951,13 +951,13 @@
         <v>0.3333</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.19479356</v>
+        <v>1.19479356</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.232332971</v>
+        <v>1.232332971</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3566395</v>
+        <v>1.3566395</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>5.143817</v>
@@ -974,13 +974,13 @@
         <v>0.5</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.40140614</v>
+        <v>1.40140614</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.417854419</v>
+        <v>1.417854419</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.1188747</v>
+        <v>1.1188747</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>5.783946</v>
@@ -997,13 +997,13 @@
         <v>0.6667</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.42688169</v>
+        <v>1.42688169</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.147947728</v>
+        <v>1.147947728</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.07352416</v>
+        <v>1.07352416</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>5.421845</v>
@@ -1020,13 +1020,13 @@
         <v>0.8333</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.01686389</v>
+        <v>1.01686389</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.499702264</v>
+        <v>1.499702264</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.0174374</v>
+        <v>1.0174374</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>5.963843</v>
@@ -1043,13 +1043,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.30861763</v>
+        <v>1.30861763</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.143142674</v>
+        <v>1.143142674</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3688987</v>
+        <v>1.3688987</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>5.5849</v>
@@ -1066,13 +1066,13 @@
         <v>1.1667</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.24628327</v>
+        <v>1.24628327</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.348686883</v>
+        <v>1.348686883</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.32073118</v>
+        <v>1.32073118</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>5.913995</v>
@@ -1089,13 +1089,13 @@
         <v>1.3333</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.20736767</v>
+        <v>1.20736767</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.05970239</v>
+        <v>1.05970239</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.26301483</v>
+        <v>1.26301483</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>5.977099</v>
@@ -1112,13 +1112,13 @@
         <v>1.5</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.1851074</v>
+        <v>1.1851074</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.49167509</v>
+        <v>1.49167509</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.19415956</v>
+        <v>1.19415956</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>5.239595</v>
@@ -1319,10 +1319,10 @@
   <dimension ref="A1:AI301"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA24" activeCellId="1" sqref="D4:D9 AA24"/>
+      <selection pane="topLeft" activeCell="AA24" activeCellId="1" sqref="I2:L11 AA24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
